--- a/SevenRMartSuperMarket/src/test/resources/excelTestData.xlsx
+++ b/SevenRMartSuperMarket/src/test/resources/excelTestData.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CDB3E1A-5D4B-4860-86C8-95E52275C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A61FB7-9613-440C-99FA-105C70D178F8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage1" sheetId="1" r:id="rId1"/>
+    <sheet name="ImagesForTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -40,6 +41,18 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>meatballs</t>
+  </si>
+  <si>
+    <t>C:\Users\ANUPAMA VISHNU\git\7RMartSuperMarket\SevenRMartSuperMarket\src\test\resources\MeatBalls.jpg</t>
+  </si>
+  <si>
+    <t>ricebowl</t>
+  </si>
+  <si>
+    <t>C:\Users\ANUPAMA VISHNU\git\7RMartSuperMarket\SevenRMartSuperMarket\src\test\resources\RiceBowl.jpg</t>
   </si>
 </sst>
 </file>
@@ -75,8 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,9 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -438,4 +452,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A0A0D1-BEBC-4111-BCB5-943ED634C59E}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="111.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>